--- a/spliced/falling/2023-03-25_18-02-03/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-03/data_selected.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.657281875610353</v>
+        <v>-2.092850303649902</v>
       </c>
       <c r="D2" t="n">
-        <v>0.2476238250732379</v>
+        <v>0.9900987625122062</v>
       </c>
       <c r="E2" t="n">
-        <v>2.285648679733275</v>
+        <v>1.828120517730715</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0036651915870606</v>
+        <v>0.0937678143382072</v>
       </c>
       <c r="G2" t="n">
-        <v>0.1434006094932556</v>
+        <v>0.0774271711707115</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.0604756586253643</v>
+        <v>-0.1965458989143371</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-4.063823699951181</v>
+        <v>-2.105730056762695</v>
       </c>
       <c r="D3" t="n">
-        <v>-1.187473011016849</v>
+        <v>0.8735208511352541</v>
       </c>
       <c r="E3" t="n">
-        <v>2.541466045379643</v>
+        <v>2.453470587730407</v>
       </c>
       <c r="F3" t="n">
-        <v>0.2081523388624191</v>
+        <v>-0.1837177276611328</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1316414624452591</v>
+        <v>0.2562579810619354</v>
       </c>
       <c r="H3" t="n">
-        <v>0.1007927656173706</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-5.616066837310788</v>
+        <v>-2.657281875610353</v>
       </c>
       <c r="D4" t="n">
-        <v>-2.403632545471194</v>
+        <v>0.2476238250732379</v>
       </c>
       <c r="E4" t="n">
-        <v>3.652213478088379</v>
+        <v>2.285648679733275</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.4978551864624023</v>
+        <v>-0.0036651915870606</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.2622139155864715</v>
+        <v>0.1434006094932556</v>
       </c>
       <c r="H4" t="n">
-        <v>-1.034500241279602</v>
+        <v>-0.0604756586253643</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-3.539181804656983</v>
+        <v>-4.063823699951181</v>
       </c>
       <c r="D5" t="n">
-        <v>-3.395954704284656</v>
+        <v>-1.187473011016849</v>
       </c>
       <c r="E5" t="n">
-        <v>3.008686828613268</v>
+        <v>2.541466045379643</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.328340083360672</v>
+        <v>0.2081523388624191</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.4218024611473083</v>
+        <v>0.1316414624452591</v>
       </c>
       <c r="H5" t="n">
-        <v>-0.5737552046775818</v>
+        <v>0.1007927656173706</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-3.633686542510985</v>
+        <v>-5.616066837310788</v>
       </c>
       <c r="D6" t="n">
-        <v>3.542618751525879</v>
+        <v>-2.403632545471194</v>
       </c>
       <c r="E6" t="n">
-        <v>-4.68873119354248</v>
+        <v>3.652213478088379</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.957962274551392</v>
+        <v>-0.4978551864624023</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2176207453012466</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="H6" t="n">
-        <v>-2.633592844009399</v>
+        <v>-1.034500241279602</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>53.59859118461612</v>
+        <v>-3.539181804656983</v>
       </c>
       <c r="D7" t="n">
-        <v>-4.54958009719849</v>
+        <v>-3.395954704284656</v>
       </c>
       <c r="E7" t="n">
-        <v>-34.16661596298219</v>
+        <v>3.008686828613268</v>
       </c>
       <c r="F7" t="n">
-        <v>1.301142930984497</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="G7" t="n">
-        <v>-3.674507141113281</v>
+        <v>-0.4218024611473083</v>
       </c>
       <c r="H7" t="n">
-        <v>2.831360340118408</v>
+        <v>-0.5737552046775818</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>10.96323089599605</v>
+        <v>-3.633686542510985</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1360907554626412</v>
+        <v>3.542618751525879</v>
       </c>
       <c r="E8" t="n">
-        <v>-11.01923332214353</v>
+        <v>-4.68873119354248</v>
       </c>
       <c r="F8" t="n">
-        <v>0.7254024744033813</v>
+        <v>-2.957962274551392</v>
       </c>
       <c r="G8" t="n">
-        <v>0.9521862268447876</v>
+        <v>-0.2176207453012466</v>
       </c>
       <c r="H8" t="n">
-        <v>-1.527926683425903</v>
+        <v>-2.633592844009399</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-1.288498878479004</v>
+        <v>53.59859118461612</v>
       </c>
       <c r="D9" t="n">
-        <v>0.4897777378559073</v>
+        <v>-4.54958009719849</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.382943773269636</v>
+        <v>-34.16661596298219</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.2622139155864715</v>
+        <v>1.301142930984497</v>
       </c>
       <c r="G9" t="n">
-        <v>1.557553648948669</v>
+        <v>-3.674507141113281</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.6866125464439392</v>
+        <v>2.831360340118408</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>0.2403127670288223</v>
+        <v>10.96323089599605</v>
       </c>
       <c r="D10" t="n">
-        <v>0.4333343148231529</v>
+        <v>-0.1360907554626412</v>
       </c>
       <c r="E10" t="n">
-        <v>1.078743743896495</v>
+        <v>-11.01923332214353</v>
       </c>
       <c r="F10" t="n">
-        <v>1.219134330749511</v>
+        <v>0.7254024744033813</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.9372199773788452</v>
+        <v>0.9521862268447876</v>
       </c>
       <c r="H10" t="n">
-        <v>2.843730449676514</v>
+        <v>-1.527926683425903</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>0.6345248222351046</v>
+        <v>-1.288498878479004</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4263583719730371</v>
+        <v>0.4897777378559073</v>
       </c>
       <c r="E11" t="n">
-        <v>1.455561161041258</v>
+        <v>-1.382943773269636</v>
       </c>
       <c r="F11" t="n">
-        <v>0.8478809595108032</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.9918924570083618</v>
+        <v>1.557553648948669</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.8237518072128296</v>
+        <v>-0.6866125464439392</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-0.09080390930175844</v>
+        <v>0.2403127670288223</v>
       </c>
       <c r="D12" t="n">
-        <v>2.436175584793104</v>
+        <v>0.4333343148231529</v>
       </c>
       <c r="E12" t="n">
-        <v>1.085069131851197</v>
+        <v>1.078743743896495</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.0302378293126821</v>
+        <v>1.219134330749511</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.6291912198066711</v>
+        <v>-0.9372199773788452</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.0180205255746841</v>
+        <v>2.843730449676514</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.009081411361702</v>
+        <v>0.6345248222351046</v>
       </c>
       <c r="D13" t="n">
-        <v>3.721519541740399</v>
+        <v>0.4263583719730371</v>
       </c>
       <c r="E13" t="n">
-        <v>1.14239126443863</v>
+        <v>1.455561161041258</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0595593601465225</v>
+        <v>0.8478809595108032</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2151772826910019</v>
+        <v>-0.9918924570083618</v>
       </c>
       <c r="H13" t="n">
-        <v>0.1901318132877349</v>
+        <v>-0.8237518072128296</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-2.444419670104975</v>
+        <v>-0.09080390930175844</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2522135257720842</v>
+        <v>2.436175584793104</v>
       </c>
       <c r="E14" t="n">
-        <v>1.136495351791381</v>
+        <v>1.085069131851197</v>
       </c>
       <c r="F14" t="n">
-        <v>0.0241291765123605</v>
+        <v>-0.0302378293126821</v>
       </c>
       <c r="G14" t="n">
-        <v>0.3474296033382416</v>
+        <v>-0.6291912198066711</v>
       </c>
       <c r="H14" t="n">
-        <v>0.1518000066280365</v>
+        <v>-0.0180205255746841</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.008091449737549</v>
+        <v>-1.009081411361702</v>
       </c>
       <c r="D15" t="n">
-        <v>2.286790394783017</v>
+        <v>3.721519541740399</v>
       </c>
       <c r="E15" t="n">
-        <v>0.9021725535392736</v>
+        <v>1.14239126443863</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0592539273202419</v>
+        <v>-0.0595593601465225</v>
       </c>
       <c r="G15" t="n">
-        <v>0.4436408877372741</v>
+        <v>-0.2151772826910019</v>
       </c>
       <c r="H15" t="n">
-        <v>0.2559525370597839</v>
+        <v>0.1901318132877349</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-1.014060974121094</v>
+        <v>-2.444419670104975</v>
       </c>
       <c r="D16" t="n">
-        <v>1.50408124923706</v>
+        <v>-0.2522135257720842</v>
       </c>
       <c r="E16" t="n">
-        <v>0.3019133806228637</v>
+        <v>1.136495351791381</v>
       </c>
       <c r="F16" t="n">
-        <v>0.057115901261568</v>
+        <v>0.0241291765123605</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0777326002717018</v>
+        <v>0.3474296033382416</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.1259909570217132</v>
+        <v>0.1518000066280365</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-0.6290699958801254</v>
+        <v>-1.008091449737549</v>
       </c>
       <c r="D17" t="n">
-        <v>1.975620031356814</v>
+        <v>2.286790394783017</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.5599067687988319</v>
+        <v>0.9021725535392736</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0335975885391235</v>
+        <v>-0.0592539273202419</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0216857157647609</v>
+        <v>0.4436408877372741</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.110566608607769</v>
+        <v>0.2559525370597839</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.261460304260257</v>
+        <v>-1.014060974121094</v>
       </c>
       <c r="D18" t="n">
-        <v>1.682102203369138</v>
+        <v>1.50408124923706</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.007327961921688053</v>
+        <v>0.3019133806228637</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0045814891345798</v>
+        <v>0.057115901261568</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0555887371301651</v>
+        <v>0.0777326002717018</v>
       </c>
       <c r="H18" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.1259909570217132</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.9165861129760703</v>
+        <v>-0.6290699958801254</v>
       </c>
       <c r="D19" t="n">
-        <v>1.882461953163149</v>
+        <v>1.975620031356814</v>
       </c>
       <c r="E19" t="n">
-        <v>0.1453821629285811</v>
+        <v>-0.5599067687988319</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0044287731871008</v>
+        <v>-0.0335975885391235</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0375682115554809</v>
+        <v>-0.0216857157647609</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0296269636601209</v>
+        <v>-0.110566608607769</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-0.8792205810546895</v>
+        <v>-1.261460304260257</v>
       </c>
       <c r="D20" t="n">
-        <v>1.9060809135437</v>
+        <v>1.682102203369138</v>
       </c>
       <c r="E20" t="n">
-        <v>0.1410199522972106</v>
+        <v>-0.007327961921688053</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0070249503478407</v>
+        <v>0.0045814891345798</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.0122173046693205</v>
+        <v>0.0555887371301651</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0006108652451075</v>
+        <v>0.012980886735022</v>
       </c>
     </row>
     <row r="21">
@@ -1017,50 +1017,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-0.9211750030517577</v>
+        <v>-0.9165861129760703</v>
       </c>
       <c r="D21" t="n">
-        <v>1.817085385322571</v>
+        <v>1.882461953163149</v>
       </c>
       <c r="E21" t="n">
-        <v>0.09843596816062908</v>
+        <v>0.1453821629285811</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.0004581489483825</v>
+        <v>-0.0044287731871008</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0073303831741213</v>
+        <v>0.0375682115554809</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0157297793775796</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="n">
-        <v>2000</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>falling</t>
-        </is>
-      </c>
-      <c r="C22" t="n">
-        <v>-0.8201595306396483</v>
-      </c>
-      <c r="D22" t="n">
-        <v>1.820924615859986</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.07434962689876565</v>
-      </c>
-      <c r="F22" t="n">
-        <v>-0.0102319931611418</v>
-      </c>
-      <c r="G22" t="n">
-        <v>-0.020616702735424</v>
-      </c>
-      <c r="H22" t="n">
-        <v>0.0047342055477201</v>
+        <v>0.0296269636601209</v>
       </c>
     </row>
   </sheetData>

--- a/spliced/falling/2023-03-25_18-02-03/data_selected.xlsx
+++ b/spliced/falling/2023-03-25_18-02-03/data_selected.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -485,22 +485,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-2.092850303649902</v>
+        <v>-1.765928411483764</v>
       </c>
       <c r="D2" t="n">
-        <v>0.9900987625122062</v>
+        <v>1.167147111892701</v>
       </c>
       <c r="E2" t="n">
-        <v>1.828120517730715</v>
+        <v>0.571823143959045</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0937678143382072</v>
+        <v>-0.0310014113783836</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0774271711707115</v>
+        <v>0.0154243474826216</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.1965458989143371</v>
+        <v>0.0794124826788902</v>
       </c>
     </row>
     <row r="3">
@@ -513,22 +513,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-2.105730056762695</v>
+        <v>-1.709035491943359</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8735208511352541</v>
+        <v>1.218545722961426</v>
       </c>
       <c r="E3" t="n">
-        <v>2.453470587730407</v>
+        <v>0.4037320613861088</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1837177276611328</v>
+        <v>-0.005192354787141</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2562579810619354</v>
+        <v>0.0403171069920063</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0125227374956011</v>
+        <v>-0.0171042270958423</v>
       </c>
     </row>
     <row r="4">
@@ -541,22 +541,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-2.657281875610353</v>
+        <v>-1.738995742797851</v>
       </c>
       <c r="D4" t="n">
-        <v>0.2476238250732379</v>
+        <v>1.102185392379761</v>
       </c>
       <c r="E4" t="n">
-        <v>2.285648679733275</v>
+        <v>0.6806826651096344</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.0036651915870606</v>
+        <v>0.0421497002243995</v>
       </c>
       <c r="G4" t="n">
-        <v>0.1434006094932556</v>
+        <v>-0.0251981914043426</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0604756586253643</v>
+        <v>0.0042760567739605</v>
       </c>
     </row>
     <row r="5">
@@ -569,22 +569,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>-4.063823699951181</v>
+        <v>-1.775501251220703</v>
       </c>
       <c r="D5" t="n">
-        <v>-1.187473011016849</v>
+        <v>1.23273515701294</v>
       </c>
       <c r="E5" t="n">
-        <v>2.541466045379643</v>
+        <v>0.5835052132606506</v>
       </c>
       <c r="F5" t="n">
-        <v>0.2081523388624191</v>
+        <v>0.0103847095742821</v>
       </c>
       <c r="G5" t="n">
-        <v>0.1316414624452591</v>
+        <v>-0.0126754539087414</v>
       </c>
       <c r="H5" t="n">
-        <v>0.1007927656173706</v>
+        <v>-0.00335975876078</v>
       </c>
     </row>
     <row r="6">
@@ -597,22 +597,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>-5.616066837310788</v>
+        <v>-1.910298776626587</v>
       </c>
       <c r="D6" t="n">
-        <v>-2.403632545471194</v>
+        <v>1.120057487487793</v>
       </c>
       <c r="E6" t="n">
-        <v>3.652213478088379</v>
+        <v>0.7890581786632539</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.4978551864624023</v>
+        <v>0.0180205255746841</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2622139155864715</v>
+        <v>-0.0375682115554809</v>
       </c>
       <c r="H6" t="n">
-        <v>-1.034500241279602</v>
+        <v>0.0152716310694813</v>
       </c>
     </row>
     <row r="7">
@@ -625,22 +625,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>-3.539181804656983</v>
+        <v>-1.610696506500243</v>
       </c>
       <c r="D7" t="n">
-        <v>-3.395954704284656</v>
+        <v>1.25785665512085</v>
       </c>
       <c r="E7" t="n">
-        <v>3.008686828613268</v>
+        <v>0.8155304193496704</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.328340083360672</v>
+        <v>-0.0210748501121997</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4218024611473083</v>
+        <v>-0.0261144898831844</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.5737552046775818</v>
+        <v>-0.0280998013913631</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-3.633686542510985</v>
+        <v>-2.127863931655885</v>
       </c>
       <c r="D8" t="n">
-        <v>3.542618751525879</v>
+        <v>1.3188805103302</v>
       </c>
       <c r="E8" t="n">
-        <v>-4.68873119354248</v>
+        <v>0.8300568103790283</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.957962274551392</v>
+        <v>-0.0584903471171855</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2176207453012466</v>
+        <v>0.0059559359215199</v>
       </c>
       <c r="H8" t="n">
-        <v>-2.633592844009399</v>
+        <v>0.0522289797663688</v>
       </c>
     </row>
     <row r="9">
@@ -681,22 +681,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>53.59859118461612</v>
+        <v>-2.092850303649902</v>
       </c>
       <c r="D9" t="n">
-        <v>-4.54958009719849</v>
+        <v>0.9900987625122062</v>
       </c>
       <c r="E9" t="n">
-        <v>-34.16661596298219</v>
+        <v>1.828120517730715</v>
       </c>
       <c r="F9" t="n">
-        <v>1.301142930984497</v>
+        <v>0.0937678143382072</v>
       </c>
       <c r="G9" t="n">
-        <v>-3.674507141113281</v>
+        <v>0.0774271711707115</v>
       </c>
       <c r="H9" t="n">
-        <v>2.831360340118408</v>
+        <v>-0.1965458989143371</v>
       </c>
     </row>
     <row r="10">
@@ -709,22 +709,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>10.96323089599605</v>
+        <v>-2.105730056762695</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1360907554626412</v>
+        <v>0.8735208511352541</v>
       </c>
       <c r="E10" t="n">
-        <v>-11.01923332214353</v>
+        <v>2.453470587730407</v>
       </c>
       <c r="F10" t="n">
-        <v>0.7254024744033813</v>
+        <v>-0.1837177276611328</v>
       </c>
       <c r="G10" t="n">
-        <v>0.9521862268447876</v>
+        <v>0.2562579810619354</v>
       </c>
       <c r="H10" t="n">
-        <v>-1.527926683425903</v>
+        <v>0.0125227374956011</v>
       </c>
     </row>
     <row r="11">
@@ -737,22 +737,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-1.288498878479004</v>
+        <v>-2.657281875610353</v>
       </c>
       <c r="D11" t="n">
-        <v>0.4897777378559073</v>
+        <v>0.2476238250732379</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.382943773269636</v>
+        <v>2.285648679733275</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.2622139155864715</v>
+        <v>-0.0036651915870606</v>
       </c>
       <c r="G11" t="n">
-        <v>1.557553648948669</v>
+        <v>0.1434006094932556</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.6866125464439392</v>
+        <v>-0.0604756586253643</v>
       </c>
     </row>
     <row r="12">
@@ -765,22 +765,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>0.2403127670288223</v>
+        <v>-4.063823699951181</v>
       </c>
       <c r="D12" t="n">
-        <v>0.4333343148231529</v>
+        <v>-1.187473011016849</v>
       </c>
       <c r="E12" t="n">
-        <v>1.078743743896495</v>
+        <v>2.541466045379643</v>
       </c>
       <c r="F12" t="n">
-        <v>1.219134330749511</v>
+        <v>0.2081523388624191</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.9372199773788452</v>
+        <v>0.1316414624452591</v>
       </c>
       <c r="H12" t="n">
-        <v>2.843730449676514</v>
+        <v>0.1007927656173706</v>
       </c>
     </row>
     <row r="13">
@@ -793,22 +793,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>0.6345248222351046</v>
+        <v>-5.616066837310788</v>
       </c>
       <c r="D13" t="n">
-        <v>0.4263583719730371</v>
+        <v>-2.403632545471194</v>
       </c>
       <c r="E13" t="n">
-        <v>1.455561161041258</v>
+        <v>3.652213478088379</v>
       </c>
       <c r="F13" t="n">
-        <v>0.8478809595108032</v>
+        <v>-0.4978551864624023</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.9918924570083618</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.8237518072128296</v>
+        <v>-1.034500241279602</v>
       </c>
     </row>
     <row r="14">
@@ -821,22 +821,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>-0.09080390930175844</v>
+        <v>-3.539181804656983</v>
       </c>
       <c r="D14" t="n">
-        <v>2.436175584793104</v>
+        <v>-3.395954704284656</v>
       </c>
       <c r="E14" t="n">
-        <v>1.085069131851197</v>
+        <v>3.008686828613268</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0302378293126821</v>
+        <v>-0.328340083360672</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.6291912198066711</v>
+        <v>-0.4218024611473083</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0180205255746841</v>
+        <v>-0.5737552046775818</v>
       </c>
     </row>
     <row r="15">
@@ -849,22 +849,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-1.009081411361702</v>
+        <v>-3.633686542510985</v>
       </c>
       <c r="D15" t="n">
-        <v>3.721519541740399</v>
+        <v>3.542618751525879</v>
       </c>
       <c r="E15" t="n">
-        <v>1.14239126443863</v>
+        <v>-4.68873119354248</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0595593601465225</v>
+        <v>-2.957962274551392</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2151772826910019</v>
+        <v>-0.2176207453012466</v>
       </c>
       <c r="H15" t="n">
-        <v>0.1901318132877349</v>
+        <v>-2.633592844009399</v>
       </c>
     </row>
     <row r="16">
@@ -877,22 +877,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>-2.444419670104975</v>
+        <v>53.59859118461612</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2522135257720842</v>
+        <v>-4.54958009719849</v>
       </c>
       <c r="E16" t="n">
-        <v>1.136495351791381</v>
+        <v>-34.16661596298219</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0241291765123605</v>
+        <v>1.301142930984497</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3474296033382416</v>
+        <v>-3.674507141113281</v>
       </c>
       <c r="H16" t="n">
-        <v>0.1518000066280365</v>
+        <v>2.831360340118408</v>
       </c>
     </row>
     <row r="17">
@@ -905,22 +905,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>-1.008091449737549</v>
+        <v>10.96323089599605</v>
       </c>
       <c r="D17" t="n">
-        <v>2.286790394783017</v>
+        <v>-0.1360907554626412</v>
       </c>
       <c r="E17" t="n">
-        <v>0.9021725535392736</v>
+        <v>-11.01923332214353</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.0592539273202419</v>
+        <v>0.7254024744033813</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4436408877372741</v>
+        <v>0.9521862268447876</v>
       </c>
       <c r="H17" t="n">
-        <v>0.2559525370597839</v>
+        <v>-1.527926683425903</v>
       </c>
     </row>
     <row r="18">
@@ -933,22 +933,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>-1.014060974121094</v>
+        <v>-1.288498878479004</v>
       </c>
       <c r="D18" t="n">
-        <v>1.50408124923706</v>
+        <v>0.4897777378559073</v>
       </c>
       <c r="E18" t="n">
-        <v>0.3019133806228637</v>
+        <v>-1.382943773269636</v>
       </c>
       <c r="F18" t="n">
-        <v>0.057115901261568</v>
+        <v>-0.2622139155864715</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0777326002717018</v>
+        <v>1.557553648948669</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.1259909570217132</v>
+        <v>-0.6866125464439392</v>
       </c>
     </row>
     <row r="19">
@@ -961,22 +961,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-0.6290699958801254</v>
+        <v>0.2403127670288223</v>
       </c>
       <c r="D19" t="n">
-        <v>1.975620031356814</v>
+        <v>0.4333343148231529</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5599067687988319</v>
+        <v>1.078743743896495</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0335975885391235</v>
+        <v>1.219134330749511</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0216857157647609</v>
+        <v>-0.9372199773788452</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.110566608607769</v>
+        <v>2.843730449676514</v>
       </c>
     </row>
     <row r="20">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>-1.261460304260257</v>
+        <v>0.6345248222351046</v>
       </c>
       <c r="D20" t="n">
-        <v>1.682102203369138</v>
+        <v>0.4263583719730371</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.007327961921688053</v>
+        <v>1.455561161041258</v>
       </c>
       <c r="F20" t="n">
-        <v>0.0045814891345798</v>
+        <v>0.8478809595108032</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0555887371301651</v>
+        <v>-0.9918924570083618</v>
       </c>
       <c r="H20" t="n">
-        <v>0.012980886735022</v>
+        <v>-0.8237518072128296</v>
       </c>
     </row>
     <row r="21">
@@ -1017,22 +1017,302 @@
         </is>
       </c>
       <c r="C21" t="n">
+        <v>-0.09080390930175844</v>
+      </c>
+      <c r="D21" t="n">
+        <v>2.436175584793104</v>
+      </c>
+      <c r="E21" t="n">
+        <v>1.085069131851197</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.0302378293126821</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.6291912198066711</v>
+      </c>
+      <c r="H21" t="n">
+        <v>-0.0180205255746841</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>-1.009081411361702</v>
+      </c>
+      <c r="D22" t="n">
+        <v>3.721519541740399</v>
+      </c>
+      <c r="E22" t="n">
+        <v>1.14239126443863</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.0595593601465225</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.2151772826910019</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.1901318132877349</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>2100</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>-2.444419670104975</v>
+      </c>
+      <c r="D23" t="n">
+        <v>-0.2522135257720842</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1.136495351791381</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.0241291765123605</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.3474296033382416</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.1518000066280365</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>2200</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>-1.008091449737549</v>
+      </c>
+      <c r="D24" t="n">
+        <v>2.286790394783017</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.9021725535392736</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.0592539273202419</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.4436408877372741</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.2559525370597839</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>2300</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>-1.014060974121094</v>
+      </c>
+      <c r="D25" t="n">
+        <v>1.50408124923706</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.3019133806228637</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0.057115901261568</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.0777326002717018</v>
+      </c>
+      <c r="H25" t="n">
+        <v>-0.1259909570217132</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>2400</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>-0.6290699958801254</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1.975620031356814</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-0.5599067687988319</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.0335975885391235</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.0216857157647609</v>
+      </c>
+      <c r="H26" t="n">
+        <v>-0.110566608607769</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>2500</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>-1.261460304260257</v>
+      </c>
+      <c r="D27" t="n">
+        <v>1.682102203369138</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-0.007327961921688053</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0.0045814891345798</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.0555887371301651</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.012980886735022</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>2600</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C28" t="n">
         <v>-0.9165861129760703</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>1.882461953163149</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E28" t="n">
         <v>0.1453821629285811</v>
       </c>
-      <c r="F21" t="n">
+      <c r="F28" t="n">
         <v>-0.0044287731871008</v>
       </c>
-      <c r="G21" t="n">
+      <c r="G28" t="n">
         <v>0.0375682115554809</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>0.0296269636601209</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>2700</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>-0.8792205810546895</v>
+      </c>
+      <c r="D29" t="n">
+        <v>1.9060809135437</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.1410199522972106</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.0070249503478407</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.0122173046693205</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0006108652451075</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>2800</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>-0.9211750030517577</v>
+      </c>
+      <c r="D30" t="n">
+        <v>1.817085385322571</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.09843596816062908</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.0004581489483825</v>
+      </c>
+      <c r="G30" t="n">
+        <v>0.0073303831741213</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0157297793775796</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>2900</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>falling</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>-0.8201595306396483</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1.820924615859986</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.07434962689876565</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.0102319931611418</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.020616702735424</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0.0047342055477201</v>
       </c>
     </row>
   </sheetData>
